--- a/results/ergebnisse_vns.xlsx
+++ b/results/ergebnisse_vns.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Uni\Uni\Metaheruistic\metaheuristic_vns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Uni\Uni\Metaheruistic\metaheuristic_vns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80580E95-C0C6-4C36-AD79-D7D68B38E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D80A43-89B2-4CF1-9303-A32ACA05ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F7F93F6-DF65-4DBA-BC73-57E4A1DEEC4D}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Übersicht Ergebnisse verschiedene Versionen der VNS</t>
   </si>
   <si>
-    <t>Processing time</t>
-  </si>
-  <si>
     <t>Number max_iteration</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>c75_50_4.txt</t>
+  </si>
+  <si>
+    <t>Processing time in secounds</t>
   </si>
 </sst>
 </file>
@@ -209,12 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,40 +550,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B735DE4-3655-4843-A554-13B92DC3FA94}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -609,335 +610,1239 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.7466049999999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21.770918999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123.34521700000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>533.83150599999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.3160189999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>22.987674999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>142.82407799999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>502.22980200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="3">
+        <v>1517016.4724999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1339923.0659</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1298452.7168000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1286653.2342999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2">
-        <v>1337402.5375000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="3">
+        <v>1451280.3433999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1354938.6842</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1323908.5596</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1322000.2227</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" s="3">
+        <v>1548407.1133000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1440335.4926</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1359978.7642000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1359978.7642000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="3">
+        <v>1495265.0415000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1257157.5181</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1258652.9697999901</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1257157.5181</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" s="3">
+        <v>1490394.2365999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1410214.0685999901</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1321554.7783999899</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1321554.7783999899</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" s="3">
+        <v>1297646.3584999901</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1304833.1775</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1251308.7685</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1251308.7685</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" s="3">
+        <v>1521694.2578999901</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1467167.19049999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1369820.007</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1364889.6776000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" s="3">
+        <v>1437229.5226999901</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1369654.1362999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1347591.5519999999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1347591.5519999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
-        <v>1342402.5375000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" s="3">
+        <v>1490139.5334000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1419010.5290000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1259840.835</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1259840.835</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" s="3">
+        <v>1459665.575</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1312559.3729000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1312559.3729000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1268001.3535</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" s="3">
+        <v>1465748.9166999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1359511.8628</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1331563.1322000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1310791.94709999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" s="3">
+        <v>1416519.4095000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1368188.7986999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1340111.1555000001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1340111.1555000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" s="3">
+        <v>1529224.3104000001</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1388800.3716</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1322570.27299999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1271968.0922000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" s="3">
+        <v>1505345.3844000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1329824.1680000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1279540.7013999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1279540.7013999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" s="3">
+        <v>1576531.48299999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1336789.0393999901</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1306185.12609999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1288187.2504999901</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" s="3">
+        <v>1598188.2908999899</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1445851.2047999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1377795.5621</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1377795.5621</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1248142.8999999999</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2">
-        <v>1248142.8999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" s="3">
+        <v>8980739.5863300003</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8726016.4196699895</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8385844.32326</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8385844.32326</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4078737.1063000001</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="2">
+      <c r="B24" s="3">
+        <v>8745231.21019</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8673620.3584000003</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8443646.7588299997</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8320716.8925999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4078737.1063000001</v>
+      </c>
+      <c r="G24" s="3">
         <v>3891172.38976999</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="H24" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
+      <c r="B25" s="3">
+        <v>8868472.9054999892</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8620136.8540000003</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8533477.9249399994</v>
+      </c>
+      <c r="E25" s="3">
+        <v>8469968.6289300006</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4078737.1063000001</v>
+      </c>
+      <c r="G25" s="3">
         <v>3891172.38976999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="H25" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="2">
+      <c r="B26" s="3">
+        <v>8931739.5007000007</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8618842.6023999993</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8445567.1100500003</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8445567.1100500003</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4078737.1063000001</v>
+      </c>
+      <c r="G26" s="3">
         <v>3891172.38976999</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="H26" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3891172.38976999</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="2">
-        <v>3891172.38976999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27" s="3">
+        <v>8313279.6239700001</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8044953.6059999997</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7888382.1633700002</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7843308.5036699995</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2">
+      <c r="B28" s="3">
+        <v>8122997.2253700001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8063751.6414000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7946457.7686999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7946457.7686999999</v>
+      </c>
+      <c r="F28" s="3">
         <v>3402142.4858299899</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="G28" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="2">
+      <c r="B29" s="3">
+        <v>8160491.4307599999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7868377.9663899997</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7868377.9663899997</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7868377.9663899997</v>
+      </c>
+      <c r="F29" s="3">
         <v>3402142.4858299899</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="G29" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="2">
+      <c r="B30" s="3">
+        <v>8023734.3019000003</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7870288.0861999998</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7850773.9687999897</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7850773.9687999897</v>
+      </c>
+      <c r="F30" s="3">
         <v>3402142.4858299899</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="G30" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3402142.4858299899</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="2">
-        <v>3402142.4858299899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B31" s="3">
+        <v>5088946.4825799996</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4898510.2568800002</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4824013.57412</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4796320.8929500002</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="2">
+      <c r="B32" s="3">
+        <v>5219304.8421700001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5093755.0933999997</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4879901.5228800001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4867090.4108699998</v>
+      </c>
+      <c r="F32" s="3">
         <v>2935757.5310900002</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="G32" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="2">
+      <c r="B33" s="3">
+        <v>4986036.7927400004</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4892158.9093699995</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4769945.81399999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4658164.34340999</v>
+      </c>
+      <c r="F33" s="3">
         <v>2935757.5310900002</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="G33" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="2">
+      <c r="B34" s="3">
+        <v>5151886.5491800001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4824130.9737099996</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4785724.3026400004</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4756537.9586399999</v>
+      </c>
+      <c r="F34" s="3">
         <v>2935757.5310900002</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="G34" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2935757.5310900002</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="2">
-        <v>2935757.5310900002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35" s="3">
+        <v>4316333.0683300002</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4193859.7815799899</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4086555.7710199999</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4006933.39371</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="2">
+      <c r="B36" s="3">
+        <v>4557812.49034</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4158876.9805100001</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4019625.05907</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4019625.05907</v>
+      </c>
+      <c r="F36" s="3">
         <v>2322105.6325699999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="G36" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="2">
-        <v>2262404.5583899999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B37" s="3">
+        <v>4391894.5972499996</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4156378.9205099898</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3955081.2708099899</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3955081.2708099899</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="2">
+      <c r="B38" s="3">
+        <v>4496063.1478399998</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4153190.34444999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3974666.84772</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3974666.84772</v>
+      </c>
+      <c r="F38" s="3">
         <v>2322105.6325699999</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="G38" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2322105.6325699999</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="2">
-        <v>2322105.6325699999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B39" s="3">
+        <v>4557841.6381000001</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4293135.4101499999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4033961.6581000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3930437.7884</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="2">
+      <c r="B40" s="3">
+        <v>4501832.7489999998</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4280279.7689500004</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4041278.5288999998</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4041278.5288999998</v>
+      </c>
+      <c r="F40" s="3">
         <v>2723978.7680000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="G40" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="2">
-        <v>2750683.9127400001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41" s="3">
+        <v>4547013.5328000002</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4253806.4836999997</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4141144.4347999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4123871.6959000002</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="2">
+      <c r="B42" s="3">
+        <v>4458057.7198999897</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4180308.4786999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4025617.2168899998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4000668.5191899999</v>
+      </c>
+      <c r="F42" s="3">
         <v>2723978.7680000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="G42" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2723978.7680000002</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="2">
-        <v>2723978.7680000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B43" s="3">
+        <v>3794753.9207000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3574503.4314000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3574503.4314000001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3574503.4314000001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="2">
+      <c r="B44" s="3">
+        <v>4034909.0994000002</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3685064.36199999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3567040.0655999901</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3567040.0655999901</v>
+      </c>
+      <c r="F44" s="3">
         <v>2153639.4093999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="G44" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="2">
+      <c r="B45" s="3">
+        <v>3800072.3506999998</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3588724.4048000001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3518509.4334999998</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3518509.4334999998</v>
+      </c>
+      <c r="F45" s="3">
         <v>2153639.4093999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="G45" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="2">
-        <v>2219670.3840999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="B46" s="3">
+        <v>3839438.6512000002</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3566216.5118999998</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3537496.1650999999</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3498325.0995999998</v>
+      </c>
+      <c r="F46" s="3">
         <v>2153639.4093999998</v>
       </c>
+      <c r="G46" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2153639.4093999998</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/results/ergebnisse_vns.xlsx
+++ b/results/ergebnisse_vns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Uni\Uni\Metaheruistic\metaheuristic_vns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D18DAB6-37EE-417A-B974-221C1412454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816A199-DBC8-426B-85D4-54DE19D451C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8F7F93F6-DF65-4DBA-BC73-57E4A1DEEC4D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F7F93F6-DF65-4DBA-BC73-57E4A1DEEC4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,10 @@
     <sheet name="comparison" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">comparison!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">comparison!$E$12:$E$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">comparison!$E$2:$E$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">comparison!$H$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">comparison!$H$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">comparison!$I$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">comparison!$I$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">comparison!$E$12:$E$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">comparison!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">comparison!$H$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">comparison!$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -309,86 +306,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -475,7 +411,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -512,7 +448,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -686,58 +622,58 @@
                   <c:v>1517016.4724999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1451280.3433999999</c:v>
+                  <c:v>1507531.6025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1548407.1133000001</c:v>
+                  <c:v>1430521.7731000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1495265.0415000001</c:v>
+                  <c:v>1482052.8422999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1490394.2365999999</c:v>
+                  <c:v>1466687.3178999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1297646.3584999901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1521694.2578999901</c:v>
+                  <c:v>1557358.1416</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1437229.5226999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1490139.5334000001</c:v>
+                  <c:v>1522632.85059999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1459665.575</c:v>
+                  <c:v>1506750.1044999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1465748.9166999999</c:v>
+                  <c:v>1471835.8369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1416519.4095000001</c:v>
+                  <c:v>1524044.2157999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1529224.3104000001</c:v>
+                  <c:v>1511706.6902000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1505345.3844000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1576531.48299999</c:v>
+                  <c:v>1612240.9057</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1598188.2908999899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8980739.5863300003</c:v>
+                  <c:v>9055597.7377999909</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8745231.21019</c:v>
+                  <c:v>9056933.8929699995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8868472.9054999892</c:v>
+                  <c:v>9220658.6320999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8931739.5007000007</c:v>
@@ -755,52 +691,52 @@
                   <c:v>8023734.3019000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5088946.4825799996</c:v>
+                  <c:v>5084456.46918</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5219304.8421700001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4986036.7927400004</c:v>
+                  <c:v>5124804.8783299997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5151886.5491800001</c:v>
+                  <c:v>5260460.9408499999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4316333.0683300002</c:v>
+                  <c:v>4278401.9804699998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4557812.49034</c:v>
+                  <c:v>4556412.9431099901</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4391894.5972499996</c:v>
+                  <c:v>4364639.9987700004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4496063.1478399998</c:v>
+                  <c:v>4538524.3744399901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4557841.6381000001</c:v>
+                  <c:v>4675297.3118999898</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4501832.7489999998</c:v>
+                  <c:v>4420858.3976999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4547013.5328000002</c:v>
+                  <c:v>4347160.6760999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4458057.7198999897</c:v>
+                  <c:v>4444872.3868699996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3794753.9207000001</c:v>
+                  <c:v>3674267.7587999902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4034909.0994000002</c:v>
+                  <c:v>3731671.8662999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3800072.3506999998</c:v>
+                  <c:v>3784747.42374</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3839438.6512000002</c:v>
+                  <c:v>3748626.1218999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,31 +906,31 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1339923.0659</c:v>
+                  <c:v>1365046.8927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1354938.6842</c:v>
+                  <c:v>1370360.4694999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1440335.4926</c:v>
+                  <c:v>1512193.4309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1257157.5181</c:v>
+                  <c:v>1368630.4620999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1410214.0685999901</c:v>
+                  <c:v>1520480.1997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1304833.1775</c:v>
+                  <c:v>1331836.4018000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1467167.19049999</c:v>
+                  <c:v>1443865.2124999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1369654.1362999999</c:v>
+                  <c:v>1412536.6232999901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1419010.5290000001</c:v>
+                  <c:v>1477665.19859999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1312559.3729000001</c:v>
@@ -1003,91 +939,91 @@
                   <c:v>1359511.8628</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1368188.7986999999</c:v>
+                  <c:v>1429420.9454000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1388800.3716</c:v>
+                  <c:v>1394069.6333999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1329824.1680000001</c:v>
+                  <c:v>1393567.9583999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1336789.0393999901</c:v>
+                  <c:v>1375726.7006999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1445851.2047999999</c:v>
+                  <c:v>1483836.5970999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8726016.4196699895</c:v>
+                  <c:v>8877357.5321699996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8673620.3584000003</c:v>
+                  <c:v>8732929.8055600002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8620136.8540000003</c:v>
+                  <c:v>8910761.0557700004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8618842.6023999993</c:v>
+                  <c:v>8738646.9888000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8044953.6059999997</c:v>
+                  <c:v>8184894.8912499901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8063751.6414000001</c:v>
+                  <c:v>8122997.2253700001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7868377.9663899997</c:v>
+                  <c:v>8010178.0435600001</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7870288.0861999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4898510.2568800002</c:v>
+                  <c:v>5141942.1704500001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5093755.0933999997</c:v>
+                  <c:v>5124198.6263499996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4892158.9093699995</c:v>
+                  <c:v>4901677.5003599999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4824130.9737099996</c:v>
+                  <c:v>4973453.8829999901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4193859.7815799899</c:v>
+                  <c:v>4254515.1547800004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4158876.9805100001</c:v>
+                  <c:v>4383587.4562499998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4156378.9205099898</c:v>
+                  <c:v>4266705.0558399996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4153190.34444999</c:v>
+                  <c:v>4221605.1282199901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4293135.4101499999</c:v>
+                  <c:v>4322579.5301999897</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4280279.7689500004</c:v>
+                  <c:v>4337456.3854999896</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4253806.4836999997</c:v>
+                  <c:v>4393733.5833999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4180308.4786999999</c:v>
+                  <c:v>4322691.3343500001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3574503.4314000001</c:v>
+                  <c:v>3614859.8223999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3685064.36199999</c:v>
+                  <c:v>3847049.0052</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3588724.4048000001</c:v>
+                  <c:v>3699420.8075999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3566216.5118999998</c:v>
+                  <c:v>3731110.5002000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,124 +1193,124 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1298452.7168000001</c:v>
+                  <c:v>1344392.7915000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1323908.5596</c:v>
+                  <c:v>1354723.2089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1359978.7642000001</c:v>
+                  <c:v>1360052.3139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1258652.9697999901</c:v>
+                  <c:v>1345542.8266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1321554.7783999899</c:v>
+                  <c:v>1409302.0186999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1251308.7685</c:v>
+                  <c:v>1285463.8899999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1369820.007</c:v>
+                  <c:v>1371957.2282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1347591.5519999999</c:v>
+                  <c:v>1370144.3666999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1259840.835</c:v>
+                  <c:v>1434491.17339999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1312559.3729000001</c:v>
+                  <c:v>1386762.1365999901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1331563.1322000001</c:v>
+                  <c:v>1401666.0929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1340111.1555000001</c:v>
+                  <c:v>1408513.6654999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1322570.27299999</c:v>
+                  <c:v>1390509.4979000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1279540.7013999999</c:v>
+                  <c:v>1402473.54179999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1306185.12609999</c:v>
+                  <c:v>1383058.7548</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1377795.5621</c:v>
+                  <c:v>1418840.5186999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8385844.32326</c:v>
+                  <c:v>8592448.76131</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8443646.7588299997</c:v>
+                  <c:v>8655019.2421000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8533477.9249399994</c:v>
+                  <c:v>8715561.4845599998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8445567.1100500003</c:v>
+                  <c:v>8668807.0129000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7888382.1633700002</c:v>
+                  <c:v>7919077.1058700001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7946457.7686999999</c:v>
+                  <c:v>8043293.6363399997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7868377.9663899997</c:v>
+                  <c:v>8024683.7258299999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7850773.9687999897</c:v>
+                  <c:v>7870288.0861999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4824013.57412</c:v>
+                  <c:v>4978652.9074799996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4879901.5228800001</c:v>
+                  <c:v>5013303.7069800003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4769945.81399999</c:v>
+                  <c:v>4770870.08072</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4785724.3026400004</c:v>
+                  <c:v>4868952.40178</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4086555.7710199999</c:v>
+                  <c:v>4092819.40484</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4019625.05907</c:v>
+                  <c:v>4026865.4782599998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3955081.2708099899</c:v>
+                  <c:v>4028175.1425600001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3974666.84772</c:v>
+                  <c:v>4133260.3908600002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4033961.6581000001</c:v>
+                  <c:v>4081361.5671999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4041278.5288999998</c:v>
+                  <c:v>4102564.0399999898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4141144.4347999999</c:v>
+                  <c:v>4202143.2402999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4025617.2168899998</c:v>
+                  <c:v>4120912.6518000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3574503.4314000001</c:v>
+                  <c:v>3695397.8506999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3567040.0655999901</c:v>
+                  <c:v>3585185.7411000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3518509.4334999998</c:v>
+                  <c:v>3654077.9125999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3537496.1650999999</c:v>
+                  <c:v>3603843.2489999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,124 +1480,124 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1286653.2342999999</c:v>
+                  <c:v>1313052.1576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1322000.2227</c:v>
+                  <c:v>1338729.5505999899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1359978.7642000001</c:v>
+                  <c:v>1360052.3139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1257157.5181</c:v>
+                  <c:v>1258652.9697999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1321554.7783999899</c:v>
+                  <c:v>1326285.7291999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1251308.7685</c:v>
+                  <c:v>1262396.8725999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1364889.6776000001</c:v>
+                  <c:v>1388468.1403999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1347591.5519999999</c:v>
+                  <c:v>1352835.8637999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1259840.835</c:v>
+                  <c:v>1276612.155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1268001.3535</c:v>
+                  <c:v>1312559.3729000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1310791.94709999</c:v>
+                  <c:v>1313934.8836999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1340111.1555000001</c:v>
+                  <c:v>1348822.0829</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1271968.0922000001</c:v>
+                  <c:v>1353596.1285999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1279540.7013999999</c:v>
+                  <c:v>1301901.477</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1288187.2504999901</c:v>
+                  <c:v>1368683.54029999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1377795.5621</c:v>
+                  <c:v>1410388.7694999899</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8385844.32326</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8320716.8925999999</c:v>
+                  <c:v>8486244.3558600005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8469968.6289300006</c:v>
+                  <c:v>8517131.0430299994</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8445567.1100500003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7843308.5036699995</c:v>
+                  <c:v>7877941.9289699998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7946457.7686999999</c:v>
+                  <c:v>7998470.2255999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7868377.9663899997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7850773.9687999897</c:v>
+                  <c:v>7870288.0861999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4796320.8929500002</c:v>
+                  <c:v>4835092.0444499999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4867090.4108699998</c:v>
+                  <c:v>5013303.7069800003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4658164.34340999</c:v>
+                  <c:v>4721974.9852599902</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4756537.9586399999</c:v>
+                  <c:v>4774560.0697799996</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4006933.39371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4019625.05907</c:v>
+                  <c:v>4080875.3012999902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3955081.2708099899</c:v>
+                  <c:v>4053842.6575099998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3974666.84772</c:v>
+                  <c:v>4083474.19362</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3930437.7884</c:v>
+                  <c:v>4043655.4328999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4041278.5288999998</c:v>
+                  <c:v>4093411.8012999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4123871.6959000002</c:v>
+                  <c:v>4213918.3256000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4000668.5191899999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3574503.4314000001</c:v>
+                  <c:v>3584547.5274999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3567040.0655999901</c:v>
+                  <c:v>3585185.7411000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3518509.4334999998</c:v>
+                  <c:v>3562446.6717999899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3498325.0995999998</c:v>
+                  <c:v>3519336.5465000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,16 +1818,16 @@
                   <c:v>1248142.8999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4078737.1063000001</c:v>
+                  <c:v>3891172.38976999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4078737.1063000001</c:v>
+                  <c:v>3891172.38976999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4078737.1063000001</c:v>
+                  <c:v>3891172.38976999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4078737.1063000001</c:v>
+                  <c:v>3891172.38976999</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3402142.4858299899</c:v>
@@ -2881,7 +2817,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1352227647"/>
@@ -2940,7 +2876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1352223807"/>
@@ -2982,7 +2918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3019,7 +2955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3033,7 +2969,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3151,7 +3087,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3429,9 +3365,9 @@
                     <a:fld id="{0791C2DA-DC30-400D-A659-5DB20970EC59}" type="CELLREF">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZELLBEZ]</a:t>
+                      <a:t>[CELLREF]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3497,7 +3433,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3618,9 +3554,9 @@
                     <a:fld id="{F7855AA0-96EA-491B-87EF-7319DCAC4045}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3666,7 +3602,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3787,9 +3723,9 @@
                     <a:fld id="{493C27E5-19B5-4301-9257-87D839376A60}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3835,7 +3771,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3958,9 +3894,9 @@
                     <a:fld id="{72202913-605E-4E6A-8AEC-59F45717200D}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4006,7 +3942,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4129,9 +4065,9 @@
                     <a:fld id="{137FBC49-C84A-4BAE-8BA8-3E0D2E87EA73}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4177,7 +4113,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4300,9 +4236,9 @@
                     <a:fld id="{E0BB47FA-86A2-4D04-A8F8-AC0424321399}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4348,7 +4284,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4471,9 +4407,9 @@
                     <a:fld id="{E5FD483C-2182-460B-8F2F-BFA7E906D880}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4519,7 +4455,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4702,7 +4638,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4740,7 +4676,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="121360224"/>
@@ -4800,7 +4736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="121383264"/>
@@ -4842,7 +4778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4879,7 +4815,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4893,7 +4829,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4930,7 +4866,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7395,7 +7331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232378080"/>
@@ -7454,7 +7390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232360320"/>
@@ -7502,7 +7438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7516,7 +7452,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7583,7 +7519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7861,9 +7797,9 @@
                     <a:fld id="{9C4D8765-ED3A-4633-BDCB-954F538969F0}" type="CELLREF">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZELLBEZ]</a:t>
+                      <a:t>[CELLREF]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7929,7 +7865,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8050,9 +7986,9 @@
                     <a:fld id="{EEBDEB51-5273-4841-B3E6-E293F310AED5}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8098,7 +8034,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8219,9 +8155,9 @@
                     <a:fld id="{5FEEED2C-7822-4CE7-965A-F3FC74E74A8D}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8267,7 +8203,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8390,9 +8326,9 @@
                     <a:fld id="{CC260516-3B21-48D9-BFA0-CEB93E106C81}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8438,7 +8374,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8561,9 +8497,9 @@
                     <a:fld id="{62B663A0-25A1-42AC-B18E-C365D8DB663A}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8609,7 +8545,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8732,9 +8668,9 @@
                     <a:fld id="{5ED93BA3-F011-46A8-BADB-9047B390BB21}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8780,7 +8716,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8903,9 +8839,9 @@
                     <a:fld id="{D8146389-1F9C-4A5A-828B-CF2D930FA4E1}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8951,7 +8887,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9099,7 +9035,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9137,7 +9073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059284208"/>
@@ -9219,7 +9155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9251,7 +9187,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059280848"/>
@@ -9293,7 +9229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9330,7 +9266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9344,7 +9280,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9424,7 +9360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9543,7 +9479,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9709,7 +9645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059286608"/>
@@ -9768,7 +9704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059286128"/>
@@ -9816,7 +9752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9830,7 +9766,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9897,7 +9833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10171,7 +10107,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$6</c15:sqref>
@@ -10200,7 +10136,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10227,7 +10163,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$6:$K$6</c15:sqref>
@@ -10253,7 +10189,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10266,7 +10202,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$7</c15:sqref>
@@ -10295,7 +10231,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10322,7 +10258,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$7:$K$7</c15:sqref>
@@ -10348,7 +10284,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10361,7 +10297,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$9</c15:sqref>
@@ -10390,7 +10326,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10417,7 +10353,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$9:$K$9</c15:sqref>
@@ -10443,7 +10379,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10456,7 +10392,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$11</c15:sqref>
@@ -10487,7 +10423,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10514,7 +10450,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$11:$K$11</c15:sqref>
@@ -10540,7 +10476,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10553,7 +10489,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$12</c15:sqref>
@@ -10584,7 +10520,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10611,7 +10547,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$12:$K$12</c15:sqref>
@@ -10637,7 +10573,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10650,7 +10586,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$13</c15:sqref>
@@ -10681,7 +10617,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10708,7 +10644,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$13:$K$13</c15:sqref>
@@ -10734,7 +10670,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10747,7 +10683,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$G$14</c15:sqref>
@@ -10778,7 +10714,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$4:$K$4</c15:sqref>
@@ -10805,7 +10741,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'fix 4'!$H$14:$K$14</c15:sqref>
@@ -10831,7 +10767,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-7BAC-4FEE-AEAE-7FAE17A13E56}"/>
                   </c:ext>
@@ -10882,7 +10818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059284208"/>
@@ -10964,7 +10900,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10996,7 +10932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059280848"/>
@@ -11038,7 +10974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11075,7 +11011,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11089,7 +11025,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11126,7 +11062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11298,7 +11234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059274608"/>
@@ -11357,7 +11293,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059267888"/>
@@ -11405,7 +11341,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11419,7 +11355,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11486,7 +11422,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11764,9 +11700,9 @@
                     <a:fld id="{A08638AC-D85F-493B-A4B8-52DA505B71DC}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11812,7 +11748,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11933,9 +11869,9 @@
                     <a:fld id="{60219EEB-EABA-4DD9-B05E-80713C63C165}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11981,7 +11917,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12512,7 +12448,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12550,7 +12486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059284208"/>
@@ -12632,7 +12568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12664,7 +12600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059280848"/>
@@ -12706,7 +12642,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12743,7 +12679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12757,7 +12693,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12842,7 +12778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12952,7 +12888,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13119,7 +13055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059286608"/>
@@ -13178,7 +13114,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059286128"/>
@@ -13226,7 +13162,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13240,7 +13176,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13307,7 +13243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13658,7 +13594,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$G$6</c15:sqref>
@@ -13687,7 +13623,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$4:$K$4</c15:sqref>
@@ -13714,7 +13650,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$6:$K$6</c15:sqref>
@@ -13740,7 +13676,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1E91-4459-91C2-4DB085940685}"/>
                   </c:ext>
@@ -13753,7 +13689,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$G$7</c15:sqref>
@@ -13782,7 +13718,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$4:$K$4</c15:sqref>
@@ -13809,7 +13745,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$7:$K$7</c15:sqref>
@@ -13835,7 +13771,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1E91-4459-91C2-4DB085940685}"/>
                   </c:ext>
@@ -13848,7 +13784,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$G$8</c15:sqref>
@@ -13877,7 +13813,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$4:$K$4</c15:sqref>
@@ -13904,7 +13840,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$8:$K$8</c15:sqref>
@@ -13930,7 +13866,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-1E91-4459-91C2-4DB085940685}"/>
                   </c:ext>
@@ -13943,7 +13879,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$G$11</c15:sqref>
@@ -13974,7 +13910,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$4:$K$4</c15:sqref>
@@ -14001,7 +13937,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$11:$K$11</c15:sqref>
@@ -14027,7 +13963,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1E91-4459-91C2-4DB085940685}"/>
                   </c:ext>
@@ -14040,7 +13976,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$G$12</c15:sqref>
@@ -14071,7 +14007,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$4:$K$4</c15:sqref>
@@ -14098,7 +14034,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$12:$K$12</c15:sqref>
@@ -14124,7 +14060,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-1E91-4459-91C2-4DB085940685}"/>
                   </c:ext>
@@ -14137,7 +14073,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$G$14</c15:sqref>
@@ -14168,7 +14104,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$4:$K$4</c15:sqref>
@@ -14195,7 +14131,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>variable!$H$14:$K$14</c15:sqref>
@@ -14221,7 +14157,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-1E91-4459-91C2-4DB085940685}"/>
                   </c:ext>
@@ -14272,7 +14208,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059284208"/>
@@ -14355,7 +14291,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14387,7 +14323,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2059280848"/>
@@ -14429,7 +14365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14466,7 +14402,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14480,7 +14416,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14561,7 +14497,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14839,9 +14775,9 @@
                     <a:fld id="{2262AC33-7D42-4509-9014-0F76A43FA586}" type="CELLREF">
                       <a:rPr lang="en-US" sz="1050"/>
                       <a:pPr/>
-                      <a:t>[ZELLBEZ]</a:t>
+                      <a:t>[CELLREF]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -14913,7 +14849,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15051,9 +14987,9 @@
                       <a:pPr>
                         <a:defRPr sz="1050"/>
                       </a:pPr>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -15083,7 +15019,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-AT"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -15128,7 +15064,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15266,9 +15202,9 @@
                       <a:pPr>
                         <a:defRPr sz="1050"/>
                       </a:pPr>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -15298,7 +15234,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-AT"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -15343,7 +15279,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15483,9 +15419,9 @@
                       <a:pPr>
                         <a:defRPr sz="1050"/>
                       </a:pPr>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -15515,7 +15451,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-AT"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -15560,7 +15496,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15683,9 +15619,9 @@
                     <a:fld id="{A93A67E0-24C8-4DFB-A694-B5474596AEDE}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -15731,7 +15667,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15854,9 +15790,9 @@
                     <a:fld id="{50E0ECDC-E9AB-4651-BF19-15D568EFF814}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1050"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -15902,7 +15838,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -16025,9 +15961,9 @@
                     <a:fld id="{F99AC50B-61AE-4E76-816A-9359B10B8972}" type="SERIESNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[DATENREIHENNAME]</a:t>
+                      <a:t>[SERIES NAME]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-AT"/>
+                    <a:endParaRPr lang="en-AT"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -16073,7 +16009,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -16221,7 +16157,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-AT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16259,7 +16195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="121360224"/>
@@ -16318,7 +16254,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="121383264"/>
@@ -16360,7 +16296,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16397,7 +16333,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16413,12 +16349,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16456,7 +16392,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000005-5C01-4370-9CF1-3F308F6D12F0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Basic</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16469,7 +16405,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000006-5C01-4370-9CF1-3F308F6D12F0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Advanced</cx:v>
             </cx:txData>
           </cx:tx>
@@ -23550,8 +23486,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6786562" y="1252537"/>
-              <a:ext cx="4672013" cy="2743200"/>
+              <a:off x="6786562" y="1214437"/>
+              <a:ext cx="4672013" cy="2654300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23570,9 +23506,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-AT" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:rPr lang="en-AT" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -23585,7 +23521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23903,36 +23839,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B735DE4-3655-4843-A554-13B92DC3FA94}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -23961,36 +23897,36 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>5.7466049999999997</v>
+        <v>5.391432</v>
       </c>
       <c r="C5" s="1">
-        <v>21.770918999999999</v>
+        <v>19.087195999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>123.34521700000001</v>
+        <v>121.334444</v>
       </c>
       <c r="E5" s="1">
-        <v>533.83150599999999</v>
+        <v>477.40310899999997</v>
       </c>
       <c r="F5" s="1">
-        <v>7.3160189999999998</v>
+        <v>7.7514580000000004</v>
       </c>
       <c r="G5" s="1">
-        <v>22.987674999999999</v>
+        <v>23.574552000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>142.82407799999999</v>
+        <v>124.54464299999999</v>
       </c>
       <c r="I5" s="1">
-        <v>502.22980200000001</v>
+        <v>480.47917000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -24007,7 +23943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -24015,13 +23951,13 @@
         <v>1517016.4724999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1339923.0659</v>
+        <v>1365046.8927</v>
       </c>
       <c r="D7" s="2">
-        <v>1298452.7168000001</v>
+        <v>1344392.7915000001</v>
       </c>
       <c r="E7" s="2">
-        <v>1286653.2342999999</v>
+        <v>1313052.1576</v>
       </c>
       <c r="F7" s="2">
         <v>1248142.8999999999</v>
@@ -24037,21 +23973,21 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1451280.3433999999</v>
+        <v>1507531.6025</v>
       </c>
       <c r="C8" s="2">
-        <v>1354938.6842</v>
+        <v>1370360.4694999999</v>
       </c>
       <c r="D8" s="2">
-        <v>1323908.5596</v>
+        <v>1354723.2089</v>
       </c>
       <c r="E8" s="2">
-        <v>1322000.2227</v>
+        <v>1338729.5505999899</v>
       </c>
       <c r="F8" s="2">
         <v>1248142.8999999999</v>
@@ -24067,21 +24003,21 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1548407.1133000001</v>
+        <v>1430521.7731000001</v>
       </c>
       <c r="C9" s="2">
-        <v>1440335.4926</v>
+        <v>1512193.4309</v>
       </c>
       <c r="D9" s="2">
-        <v>1359978.7642000001</v>
+        <v>1360052.3139</v>
       </c>
       <c r="E9" s="2">
-        <v>1359978.7642000001</v>
+        <v>1360052.3139</v>
       </c>
       <c r="F9" s="2">
         <v>1248142.8999999999</v>
@@ -24097,21 +24033,21 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1495265.0415000001</v>
+        <v>1482052.8422999999</v>
       </c>
       <c r="C10" s="2">
-        <v>1257157.5181</v>
+        <v>1368630.4620999999</v>
       </c>
       <c r="D10" s="2">
+        <v>1345542.8266</v>
+      </c>
+      <c r="E10" s="2">
         <v>1258652.9697999901</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1257157.5181</v>
       </c>
       <c r="F10" s="2">
         <v>1248142.8999999999</v>
@@ -24127,21 +24063,21 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1490394.2365999999</v>
+        <v>1466687.3178999999</v>
       </c>
       <c r="C11" s="2">
-        <v>1410214.0685999901</v>
+        <v>1520480.1997</v>
       </c>
       <c r="D11" s="2">
-        <v>1321554.7783999899</v>
+        <v>1409302.0186999999</v>
       </c>
       <c r="E11" s="2">
-        <v>1321554.7783999899</v>
+        <v>1326285.7291999999</v>
       </c>
       <c r="F11" s="2">
         <v>1248142.8999999999</v>
@@ -24157,7 +24093,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -24165,13 +24101,13 @@
         <v>1297646.3584999901</v>
       </c>
       <c r="C12" s="2">
-        <v>1304833.1775</v>
+        <v>1331836.4018000001</v>
       </c>
       <c r="D12" s="2">
-        <v>1251308.7685</v>
+        <v>1285463.8899999999</v>
       </c>
       <c r="E12" s="2">
-        <v>1251308.7685</v>
+        <v>1262396.8725999999</v>
       </c>
       <c r="F12" s="2">
         <v>1248142.8999999999</v>
@@ -24187,21 +24123,21 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1521694.2578999901</v>
+        <v>1557358.1416</v>
       </c>
       <c r="C13" s="2">
-        <v>1467167.19049999</v>
+        <v>1443865.2124999999</v>
       </c>
       <c r="D13" s="2">
-        <v>1369820.007</v>
+        <v>1371957.2282</v>
       </c>
       <c r="E13" s="2">
-        <v>1364889.6776000001</v>
+        <v>1388468.1403999999</v>
       </c>
       <c r="F13" s="2">
         <v>1248142.8999999999</v>
@@ -24217,7 +24153,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -24225,13 +24161,13 @@
         <v>1437229.5226999901</v>
       </c>
       <c r="C14" s="2">
-        <v>1369654.1362999999</v>
+        <v>1412536.6232999901</v>
       </c>
       <c r="D14" s="2">
-        <v>1347591.5519999999</v>
+        <v>1370144.3666999999</v>
       </c>
       <c r="E14" s="2">
-        <v>1347591.5519999999</v>
+        <v>1352835.8637999999</v>
       </c>
       <c r="F14" s="2">
         <v>1248142.8999999999</v>
@@ -24247,21 +24183,21 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1490139.5334000001</v>
+        <v>1522632.85059999</v>
       </c>
       <c r="C15" s="2">
-        <v>1419010.5290000001</v>
+        <v>1477665.19859999</v>
       </c>
       <c r="D15" s="2">
-        <v>1259840.835</v>
+        <v>1434491.17339999</v>
       </c>
       <c r="E15" s="2">
-        <v>1259840.835</v>
+        <v>1276612.155</v>
       </c>
       <c r="F15" s="2">
         <v>1248142.8999999999</v>
@@ -24277,21 +24213,21 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1459665.575</v>
+        <v>1506750.1044999999</v>
       </c>
       <c r="C16" s="2">
         <v>1312559.3729000001</v>
       </c>
       <c r="D16" s="2">
+        <v>1386762.1365999901</v>
+      </c>
+      <c r="E16" s="2">
         <v>1312559.3729000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1268001.3535</v>
       </c>
       <c r="F16" s="2">
         <v>1248142.8999999999</v>
@@ -24307,21 +24243,21 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1465748.9166999999</v>
+        <v>1471835.8369</v>
       </c>
       <c r="C17" s="2">
         <v>1359511.8628</v>
       </c>
       <c r="D17" s="2">
-        <v>1331563.1322000001</v>
+        <v>1401666.0929</v>
       </c>
       <c r="E17" s="2">
-        <v>1310791.94709999</v>
+        <v>1313934.8836999999</v>
       </c>
       <c r="F17" s="2">
         <v>1248142.8999999999</v>
@@ -24337,21 +24273,21 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1416519.4095000001</v>
+        <v>1524044.2157999999</v>
       </c>
       <c r="C18" s="2">
-        <v>1368188.7986999999</v>
+        <v>1429420.9454000001</v>
       </c>
       <c r="D18" s="2">
-        <v>1340111.1555000001</v>
+        <v>1408513.6654999999</v>
       </c>
       <c r="E18" s="2">
-        <v>1340111.1555000001</v>
+        <v>1348822.0829</v>
       </c>
       <c r="F18" s="2">
         <v>1248142.8999999999</v>
@@ -24367,21 +24303,21 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>1529224.3104000001</v>
+        <v>1511706.6902000001</v>
       </c>
       <c r="C19" s="2">
-        <v>1388800.3716</v>
+        <v>1394069.6333999999</v>
       </c>
       <c r="D19" s="2">
-        <v>1322570.27299999</v>
+        <v>1390509.4979000001</v>
       </c>
       <c r="E19" s="2">
-        <v>1271968.0922000001</v>
+        <v>1353596.1285999999</v>
       </c>
       <c r="F19" s="2">
         <v>1248142.8999999999</v>
@@ -24397,7 +24333,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -24405,13 +24341,13 @@
         <v>1505345.3844000001</v>
       </c>
       <c r="C20" s="2">
-        <v>1329824.1680000001</v>
+        <v>1393567.9583999999</v>
       </c>
       <c r="D20" s="2">
-        <v>1279540.7013999999</v>
+        <v>1402473.54179999</v>
       </c>
       <c r="E20" s="2">
-        <v>1279540.7013999999</v>
+        <v>1301901.477</v>
       </c>
       <c r="F20" s="2">
         <v>1248142.8999999999</v>
@@ -24427,21 +24363,21 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1576531.48299999</v>
+        <v>1612240.9057</v>
       </c>
       <c r="C21" s="2">
-        <v>1336789.0393999901</v>
+        <v>1375726.7006999999</v>
       </c>
       <c r="D21" s="2">
-        <v>1306185.12609999</v>
+        <v>1383058.7548</v>
       </c>
       <c r="E21" s="2">
-        <v>1288187.2504999901</v>
+        <v>1368683.54029999</v>
       </c>
       <c r="F21" s="2">
         <v>1248142.8999999999</v>
@@ -24457,7 +24393,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -24465,13 +24401,13 @@
         <v>1598188.2908999899</v>
       </c>
       <c r="C22" s="2">
-        <v>1445851.2047999999</v>
+        <v>1483836.5970999999</v>
       </c>
       <c r="D22" s="2">
-        <v>1377795.5621</v>
+        <v>1418840.5186999999</v>
       </c>
       <c r="E22" s="2">
-        <v>1377795.5621</v>
+        <v>1410388.7694999899</v>
       </c>
       <c r="F22" s="2">
         <v>1248142.8999999999</v>
@@ -24487,24 +24423,24 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>8980739.5863300003</v>
+        <v>9055597.7377999909</v>
       </c>
       <c r="C23" s="2">
-        <v>8726016.4196699895</v>
+        <v>8877357.5321699996</v>
       </c>
       <c r="D23" s="2">
-        <v>8385844.32326</v>
+        <v>8592448.76131</v>
       </c>
       <c r="E23" s="2">
         <v>8385844.32326</v>
       </c>
       <c r="F23" s="2">
-        <v>4078737.1063000001</v>
+        <v>3891172.38976999</v>
       </c>
       <c r="G23" s="2">
         <v>3891172.38976999</v>
@@ -24517,24 +24453,24 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>8745231.21019</v>
+        <v>9056933.8929699995</v>
       </c>
       <c r="C24" s="2">
-        <v>8673620.3584000003</v>
+        <v>8732929.8055600002</v>
       </c>
       <c r="D24" s="2">
-        <v>8443646.7588299997</v>
+        <v>8655019.2421000004</v>
       </c>
       <c r="E24" s="2">
-        <v>8320716.8925999999</v>
+        <v>8486244.3558600005</v>
       </c>
       <c r="F24" s="2">
-        <v>4078737.1063000001</v>
+        <v>3891172.38976999</v>
       </c>
       <c r="G24" s="2">
         <v>3891172.38976999</v>
@@ -24547,24 +24483,24 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>8868472.9054999892</v>
+        <v>9220658.6320999991</v>
       </c>
       <c r="C25" s="2">
-        <v>8620136.8540000003</v>
+        <v>8910761.0557700004</v>
       </c>
       <c r="D25" s="2">
-        <v>8533477.9249399994</v>
+        <v>8715561.4845599998</v>
       </c>
       <c r="E25" s="2">
-        <v>8469968.6289300006</v>
+        <v>8517131.0430299994</v>
       </c>
       <c r="F25" s="2">
-        <v>4078737.1063000001</v>
+        <v>3891172.38976999</v>
       </c>
       <c r="G25" s="2">
         <v>3891172.38976999</v>
@@ -24577,7 +24513,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -24585,16 +24521,16 @@
         <v>8931739.5007000007</v>
       </c>
       <c r="C26" s="2">
-        <v>8618842.6023999993</v>
+        <v>8738646.9888000004</v>
       </c>
       <c r="D26" s="2">
-        <v>8445567.1100500003</v>
+        <v>8668807.0129000004</v>
       </c>
       <c r="E26" s="2">
         <v>8445567.1100500003</v>
       </c>
       <c r="F26" s="2">
-        <v>4078737.1063000001</v>
+        <v>3891172.38976999</v>
       </c>
       <c r="G26" s="2">
         <v>3891172.38976999</v>
@@ -24607,7 +24543,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -24615,13 +24551,13 @@
         <v>8313279.6239700001</v>
       </c>
       <c r="C27" s="2">
-        <v>8044953.6059999997</v>
+        <v>8184894.8912499901</v>
       </c>
       <c r="D27" s="2">
-        <v>7888382.1633700002</v>
+        <v>7919077.1058700001</v>
       </c>
       <c r="E27" s="2">
-        <v>7843308.5036699995</v>
+        <v>7877941.9289699998</v>
       </c>
       <c r="F27" s="2">
         <v>3402142.4858299899</v>
@@ -24637,7 +24573,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -24645,13 +24581,13 @@
         <v>8122997.2253700001</v>
       </c>
       <c r="C28" s="2">
-        <v>8063751.6414000001</v>
+        <v>8122997.2253700001</v>
       </c>
       <c r="D28" s="2">
-        <v>7946457.7686999999</v>
+        <v>8043293.6363399997</v>
       </c>
       <c r="E28" s="2">
-        <v>7946457.7686999999</v>
+        <v>7998470.2255999995</v>
       </c>
       <c r="F28" s="2">
         <v>3402142.4858299899</v>
@@ -24667,7 +24603,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -24675,10 +24611,10 @@
         <v>8160491.4307599999</v>
       </c>
       <c r="C29" s="2">
-        <v>7868377.9663899997</v>
+        <v>8010178.0435600001</v>
       </c>
       <c r="D29" s="2">
-        <v>7868377.9663899997</v>
+        <v>8024683.7258299999</v>
       </c>
       <c r="E29" s="2">
         <v>7868377.9663899997</v>
@@ -24697,7 +24633,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -24708,10 +24644,10 @@
         <v>7870288.0861999998</v>
       </c>
       <c r="D30" s="2">
-        <v>7850773.9687999897</v>
+        <v>7870288.0861999998</v>
       </c>
       <c r="E30" s="2">
-        <v>7850773.9687999897</v>
+        <v>7870288.0861999998</v>
       </c>
       <c r="F30" s="2">
         <v>3402142.4858299899</v>
@@ -24727,21 +24663,21 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>5088946.4825799996</v>
+        <v>5084456.46918</v>
       </c>
       <c r="C31" s="2">
-        <v>4898510.2568800002</v>
+        <v>5141942.1704500001</v>
       </c>
       <c r="D31" s="2">
-        <v>4824013.57412</v>
+        <v>4978652.9074799996</v>
       </c>
       <c r="E31" s="2">
-        <v>4796320.8929500002</v>
+        <v>4835092.0444499999</v>
       </c>
       <c r="F31" s="2">
         <v>2935757.5310900002</v>
@@ -24757,7 +24693,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -24765,13 +24701,13 @@
         <v>5219304.8421700001</v>
       </c>
       <c r="C32" s="2">
-        <v>5093755.0933999997</v>
+        <v>5124198.6263499996</v>
       </c>
       <c r="D32" s="2">
-        <v>4879901.5228800001</v>
+        <v>5013303.7069800003</v>
       </c>
       <c r="E32" s="2">
-        <v>4867090.4108699998</v>
+        <v>5013303.7069800003</v>
       </c>
       <c r="F32" s="2">
         <v>2935757.5310900002</v>
@@ -24787,21 +24723,21 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>4986036.7927400004</v>
+        <v>5124804.8783299997</v>
       </c>
       <c r="C33" s="2">
-        <v>4892158.9093699995</v>
+        <v>4901677.5003599999</v>
       </c>
       <c r="D33" s="2">
-        <v>4769945.81399999</v>
+        <v>4770870.08072</v>
       </c>
       <c r="E33" s="2">
-        <v>4658164.34340999</v>
+        <v>4721974.9852599902</v>
       </c>
       <c r="F33" s="2">
         <v>2935757.5310900002</v>
@@ -24817,21 +24753,21 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>5151886.5491800001</v>
+        <v>5260460.9408499999</v>
       </c>
       <c r="C34" s="2">
-        <v>4824130.9737099996</v>
+        <v>4973453.8829999901</v>
       </c>
       <c r="D34" s="2">
-        <v>4785724.3026400004</v>
+        <v>4868952.40178</v>
       </c>
       <c r="E34" s="2">
-        <v>4756537.9586399999</v>
+        <v>4774560.0697799996</v>
       </c>
       <c r="F34" s="2">
         <v>2935757.5310900002</v>
@@ -24847,18 +24783,18 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>4316333.0683300002</v>
+        <v>4278401.9804699998</v>
       </c>
       <c r="C35" s="2">
-        <v>4193859.7815799899</v>
+        <v>4254515.1547800004</v>
       </c>
       <c r="D35" s="2">
-        <v>4086555.7710199999</v>
+        <v>4092819.40484</v>
       </c>
       <c r="E35" s="2">
         <v>4006933.39371</v>
@@ -24877,21 +24813,21 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>4557812.49034</v>
+        <v>4556412.9431099901</v>
       </c>
       <c r="C36" s="2">
-        <v>4158876.9805100001</v>
+        <v>4383587.4562499998</v>
       </c>
       <c r="D36" s="2">
-        <v>4019625.05907</v>
+        <v>4026865.4782599998</v>
       </c>
       <c r="E36" s="2">
-        <v>4019625.05907</v>
+        <v>4080875.3012999902</v>
       </c>
       <c r="F36" s="2">
         <v>2322105.6325699999</v>
@@ -24907,21 +24843,21 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>4391894.5972499996</v>
+        <v>4364639.9987700004</v>
       </c>
       <c r="C37" s="2">
-        <v>4156378.9205099898</v>
+        <v>4266705.0558399996</v>
       </c>
       <c r="D37" s="2">
-        <v>3955081.2708099899</v>
+        <v>4028175.1425600001</v>
       </c>
       <c r="E37" s="2">
-        <v>3955081.2708099899</v>
+        <v>4053842.6575099998</v>
       </c>
       <c r="F37" s="2">
         <v>2322105.6325699999</v>
@@ -24937,21 +24873,21 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>4496063.1478399998</v>
+        <v>4538524.3744399901</v>
       </c>
       <c r="C38" s="2">
-        <v>4153190.34444999</v>
+        <v>4221605.1282199901</v>
       </c>
       <c r="D38" s="2">
-        <v>3974666.84772</v>
+        <v>4133260.3908600002</v>
       </c>
       <c r="E38" s="2">
-        <v>3974666.84772</v>
+        <v>4083474.19362</v>
       </c>
       <c r="F38" s="2">
         <v>2322105.6325699999</v>
@@ -24967,21 +24903,21 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>4557841.6381000001</v>
+        <v>4675297.3118999898</v>
       </c>
       <c r="C39" s="2">
-        <v>4293135.4101499999</v>
+        <v>4322579.5301999897</v>
       </c>
       <c r="D39" s="2">
-        <v>4033961.6581000001</v>
+        <v>4081361.5671999999</v>
       </c>
       <c r="E39" s="2">
-        <v>3930437.7884</v>
+        <v>4043655.4328999999</v>
       </c>
       <c r="F39" s="2">
         <v>2723978.7680000002</v>
@@ -24997,21 +24933,21 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>4501832.7489999998</v>
+        <v>4420858.3976999996</v>
       </c>
       <c r="C40" s="2">
-        <v>4280279.7689500004</v>
+        <v>4337456.3854999896</v>
       </c>
       <c r="D40" s="2">
-        <v>4041278.5288999998</v>
+        <v>4102564.0399999898</v>
       </c>
       <c r="E40" s="2">
-        <v>4041278.5288999998</v>
+        <v>4093411.8012999999</v>
       </c>
       <c r="F40" s="2">
         <v>2723978.7680000002</v>
@@ -25027,21 +24963,21 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>4547013.5328000002</v>
+        <v>4347160.6760999998</v>
       </c>
       <c r="C41" s="2">
-        <v>4253806.4836999997</v>
+        <v>4393733.5833999999</v>
       </c>
       <c r="D41" s="2">
-        <v>4141144.4347999999</v>
+        <v>4202143.2402999997</v>
       </c>
       <c r="E41" s="2">
-        <v>4123871.6959000002</v>
+        <v>4213918.3256000001</v>
       </c>
       <c r="F41" s="2">
         <v>2723978.7680000002</v>
@@ -25057,18 +24993,18 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>4458057.7198999897</v>
+        <v>4444872.3868699996</v>
       </c>
       <c r="C42" s="2">
-        <v>4180308.4786999999</v>
+        <v>4322691.3343500001</v>
       </c>
       <c r="D42" s="2">
-        <v>4025617.2168899998</v>
+        <v>4120912.6518000001</v>
       </c>
       <c r="E42" s="2">
         <v>4000668.5191899999</v>
@@ -25087,21 +25023,21 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>3794753.9207000001</v>
+        <v>3674267.7587999902</v>
       </c>
       <c r="C43" s="2">
-        <v>3574503.4314000001</v>
+        <v>3614859.8223999999</v>
       </c>
       <c r="D43" s="2">
-        <v>3574503.4314000001</v>
+        <v>3695397.8506999998</v>
       </c>
       <c r="E43" s="2">
-        <v>3574503.4314000001</v>
+        <v>3584547.5274999999</v>
       </c>
       <c r="F43" s="2">
         <v>2153639.4093999998</v>
@@ -25117,21 +25053,21 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>4034909.0994000002</v>
+        <v>3731671.8662999999</v>
       </c>
       <c r="C44" s="2">
-        <v>3685064.36199999</v>
+        <v>3847049.0052</v>
       </c>
       <c r="D44" s="2">
-        <v>3567040.0655999901</v>
+        <v>3585185.7411000002</v>
       </c>
       <c r="E44" s="2">
-        <v>3567040.0655999901</v>
+        <v>3585185.7411000002</v>
       </c>
       <c r="F44" s="2">
         <v>2153639.4093999998</v>
@@ -25147,21 +25083,21 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>3800072.3506999998</v>
+        <v>3784747.42374</v>
       </c>
       <c r="C45" s="2">
-        <v>3588724.4048000001</v>
+        <v>3699420.8075999999</v>
       </c>
       <c r="D45" s="2">
-        <v>3518509.4334999998</v>
+        <v>3654077.9125999999</v>
       </c>
       <c r="E45" s="2">
-        <v>3518509.4334999998</v>
+        <v>3562446.6717999899</v>
       </c>
       <c r="F45" s="2">
         <v>2153639.4093999998</v>
@@ -25177,21 +25113,21 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>3839438.6512000002</v>
+        <v>3748626.1218999899</v>
       </c>
       <c r="C46" s="2">
-        <v>3566216.5118999998</v>
+        <v>3731110.5002000001</v>
       </c>
       <c r="D46" s="2">
-        <v>3537496.1650999999</v>
+        <v>3603843.2489999998</v>
       </c>
       <c r="E46" s="2">
-        <v>3498325.0995999998</v>
+        <v>3519336.5465000002</v>
       </c>
       <c r="F46" s="2">
         <v>2153639.4093999998</v>
@@ -25225,34 +25161,34 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="3"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -25273,7 +25209,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25292,26 +25228,26 @@
       <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>20</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>50</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>100</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -25331,7 +25267,7 @@
         <f>B5-E5</f>
         <v>230363.23820000002</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>131</v>
       </c>
       <c r="H5" s="2">
@@ -25354,7 +25290,7 @@
         <f>AVERAGE(F5:F8)</f>
         <v>196544.80784999998</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>L5/H5</f>
         <v>0.13076901015815814</v>
       </c>
@@ -25364,7 +25300,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -25384,7 +25320,7 @@
         <f t="shared" ref="F6:F44" si="0">B6-E6</f>
         <v>129280.12069999985</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>132</v>
       </c>
       <c r="H6" s="2">
@@ -25407,7 +25343,7 @@
         <f>AVERAGE(F9:F12)</f>
         <v>115404.89979999507</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" ref="M6:M14" si="1">L6/H6</f>
         <v>8.0324075289531574E-2</v>
       </c>
@@ -25417,7 +25353,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -25437,7 +25373,7 @@
         <f t="shared" si="0"/>
         <v>188428.34909999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>133</v>
       </c>
       <c r="H7" s="2">
@@ -25460,7 +25396,7 @@
         <f>AVERAGE(F13:F16)</f>
         <v>163332.0358750025</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
         <v>0.11202330540353</v>
       </c>
@@ -25470,7 +25406,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -25490,7 +25426,7 @@
         <f t="shared" si="0"/>
         <v>238107.52340000006</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>134</v>
       </c>
       <c r="H8" s="2">
@@ -25513,7 +25449,7 @@
         <f>AVERAGE(F17:F20)</f>
         <v>247949.46562499751</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="1"/>
         <v>0.15972807637644887</v>
       </c>
@@ -25523,7 +25459,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -25543,7 +25479,7 @@
         <f t="shared" si="0"/>
         <v>168839.45820001001</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2">
@@ -25566,7 +25502,7 @@
         <f>AVERAGE(F21:F24)</f>
         <v>476021.56196999736</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
         <v>5.3596701818905419E-2</v>
       </c>
@@ -25576,7 +25512,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -25596,7 +25532,7 @@
         <f t="shared" si="0"/>
         <v>46337.589999990072</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="2">
@@ -25619,7 +25555,7 @@
         <f>AVERAGE(F25:F28)</f>
         <v>277896.09361000289</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="1"/>
         <v>3.4076249182420144E-2</v>
       </c>
@@ -25629,7 +25565,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -25649,7 +25585,7 @@
         <f t="shared" si="0"/>
         <v>156804.58029999002</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="2">
@@ -25672,7 +25608,7 @@
         <f>AVERAGE(F29:F32)</f>
         <v>342015.26520000258</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" si="1"/>
         <v>6.6910367494323178E-2</v>
       </c>
@@ -25682,7 +25618,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -25702,7 +25638,7 @@
         <f t="shared" si="0"/>
         <v>89637.970699990168</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="2">
@@ -25725,7 +25661,7 @@
         <f>AVERAGE(F33:F36)</f>
         <v>451449.18311250245</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f t="shared" si="1"/>
         <v>0.10166570374960869</v>
       </c>
@@ -25735,7 +25671,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -25755,7 +25691,7 @@
         <f t="shared" si="0"/>
         <v>230298.69840000011</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="2">
@@ -25778,7 +25714,7 @@
         <f>AVERAGE(F37:F40)</f>
         <v>492122.27685249748</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>0.10896854827964159</v>
       </c>
@@ -25788,7 +25724,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -25808,7 +25744,7 @@
         <f t="shared" si="0"/>
         <v>191664.22149999999</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="2">
@@ -25831,7 +25767,7 @@
         <f>AVERAGE(F41:F44)</f>
         <v>327698.99797500263</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f t="shared" si="1"/>
         <v>8.4736004006149154E-2</v>
       </c>
@@ -25841,7 +25777,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -25867,7 +25803,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -25893,7 +25829,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -25919,7 +25855,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -25945,7 +25881,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -25971,7 +25907,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -25997,7 +25933,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -26023,7 +25959,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -26049,7 +25985,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -26075,7 +26011,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -26101,7 +26037,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -26127,7 +26063,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -26153,7 +26089,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -26179,7 +26115,7 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -26205,7 +26141,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -26231,7 +26167,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -26257,7 +26193,7 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -26283,7 +26219,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -26309,7 +26245,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -26335,7 +26271,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -26361,7 +26297,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -26387,7 +26323,7 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -26413,7 +26349,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -26439,7 +26375,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -26465,7 +26401,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -26491,7 +26427,7 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -26517,7 +26453,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -26543,7 +26479,7 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -26569,7 +26505,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -26595,7 +26531,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -26621,47 +26557,47 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E51" s="6">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E51" s="5">
         <v>131</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>132</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>133</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>134</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="N51" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B52" s="5">
         <v>131</v>
       </c>
       <c r="C52" s="2" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E52" s="2">
@@ -26695,8 +26631,8 @@
         <v>3867293.5055</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B53" s="5">
         <v>132</v>
       </c>
       <c r="C53" s="2" t="e">
@@ -26704,8 +26640,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B54" s="5">
         <v>133</v>
       </c>
       <c r="C54" s="2" t="e">
@@ -26713,8 +26649,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B55" s="5">
         <v>134</v>
       </c>
       <c r="C55" s="2" t="e">
@@ -26722,8 +26658,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="2" t="e">
@@ -26731,8 +26667,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="2" t="e">
@@ -26740,8 +26676,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="2" t="e">
@@ -26749,8 +26685,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B59" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="2" t="e">
@@ -26758,8 +26694,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="2" t="e">
@@ -26767,8 +26703,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B61" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="2" t="e">
@@ -26782,9 +26718,9 @@
     <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:K14">
-    <cfRule type="top10" dxfId="12" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="11" priority="2" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26800,29 +26736,29 @@
       <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="3"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -26839,7 +26775,7 @@
         <v>502.22980200000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -26858,23 +26794,23 @@
       <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>20</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>50</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>100</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26894,7 +26830,7 @@
         <f>B5-E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>131</v>
       </c>
       <c r="H5" s="2">
@@ -26917,15 +26853,15 @@
         <f>AVERAGE(F5:F8)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>L5/H5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>1248142.8999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26945,7 +26881,7 @@
         <f t="shared" ref="F6:F44" si="0">B6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>132</v>
       </c>
       <c r="H6" s="2">
@@ -26968,12 +26904,12 @@
         <f>AVERAGE(F9:F12)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" ref="M6:M14" si="1">L6/H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -26993,7 +26929,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>133</v>
       </c>
       <c r="H7" s="2">
@@ -27016,12 +26952,12 @@
         <f>AVERAGE(F13:F16)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -27041,7 +26977,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>134</v>
       </c>
       <c r="H8" s="2">
@@ -27064,12 +27000,12 @@
         <f>AVERAGE(F17:F20)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -27089,7 +27025,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2">
@@ -27112,7 +27048,7 @@
         <f>AVERAGE(F21:F24)</f>
         <v>187564.7165300101</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
         <v>4.5985978414813361E-2</v>
       </c>
@@ -27120,7 +27056,7 @@
         <v>4078737.1063000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -27140,7 +27076,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="2">
@@ -27163,12 +27099,12 @@
         <f>AVERAGE(F25:F28)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -27188,7 +27124,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="2">
@@ -27211,12 +27147,12 @@
         <f>AVERAGE(F29:F32)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -27236,7 +27172,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="2">
@@ -27259,12 +27195,12 @@
         <f>AVERAGE(F33:F36)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -27284,7 +27220,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="2">
@@ -27307,12 +27243,12 @@
         <f>AVERAGE(F37:F40)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -27332,7 +27268,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="2">
@@ -27355,12 +27291,12 @@
         <f>AVERAGE(F41:F44)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -27381,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -27402,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -27423,7 +27359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -27444,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -27465,7 +27401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -27486,7 +27422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -27507,7 +27443,7 @@
         <v>187564.7165300101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -27528,7 +27464,7 @@
         <v>187564.7165300101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -27549,7 +27485,7 @@
         <v>187564.7165300101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -27570,7 +27506,7 @@
         <v>187564.7165300101</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -27591,7 +27527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -27612,7 +27548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -27633,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -27654,7 +27590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -27675,7 +27611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -27696,7 +27632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -27717,7 +27653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -27738,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -27759,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -27780,7 +27716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -27801,7 +27737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -27822,7 +27758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -27843,7 +27779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -27864,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -27885,7 +27821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -27906,7 +27842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -27927,7 +27863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -27948,7 +27884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -27969,7 +27905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -27995,12 +27931,12 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:K14">
-    <cfRule type="top10" dxfId="9" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="top10" dxfId="7" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28012,35 +27948,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E5D93B-79D9-4FCC-9D11-5034E657D387}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
         <v>10</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>20</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>50</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>100</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>131</v>
       </c>
       <c r="B2" s="2">
@@ -28063,7 +27999,7 @@
         <f>'fix 4'!L5</f>
         <v>196544.80784999998</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>F2/B2</f>
         <v>0.13076901015815814</v>
       </c>
@@ -28071,8 +28007,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>132</v>
       </c>
       <c r="B3" s="2">
@@ -28095,13 +28031,13 @@
         <f>'fix 4'!L6</f>
         <v>115404.89979999507</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G21" si="0">F3/B3</f>
         <v>8.0324075289531574E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>133</v>
       </c>
       <c r="B4" s="2">
@@ -28124,13 +28060,13 @@
         <f>'fix 4'!L7</f>
         <v>163332.0358750025</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>0.11202330540353</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>134</v>
       </c>
       <c r="B5" s="2">
@@ -28153,13 +28089,13 @@
         <f>'fix 4'!L8</f>
         <v>247949.46562499751</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0.15972807637644887</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="2">
@@ -28182,13 +28118,13 @@
         <f>'fix 4'!L9</f>
         <v>476021.56196999736</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>5.3596701818905419E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="2">
@@ -28211,13 +28147,13 @@
         <f>'fix 4'!L10</f>
         <v>277896.09361000289</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>3.4076249182420144E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="2">
@@ -28240,13 +28176,13 @@
         <f>'fix 4'!L11</f>
         <v>342015.26520000258</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>6.6910367494323178E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="2">
@@ -28269,13 +28205,13 @@
         <f>'fix 4'!L12</f>
         <v>451449.18311250245</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0.10166570374960869</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="2">
@@ -28298,13 +28234,13 @@
         <f>'fix 4'!L13</f>
         <v>492122.27685249748</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0.10896854827964159</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="2">
@@ -28327,13 +28263,13 @@
         <f>'fix 4'!L14</f>
         <v>327698.99797500263</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>8.4736004006149154E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2">
@@ -28356,7 +28292,7 @@
         <f>variable!L5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28364,8 +28300,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="2">
@@ -28388,13 +28324,13 @@
         <f>variable!L6</f>
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="2">
@@ -28417,13 +28353,13 @@
         <f>variable!L7</f>
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="2">
@@ -28446,13 +28382,13 @@
         <f>variable!L8</f>
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="2">
@@ -28475,13 +28411,13 @@
         <f>variable!L9</f>
         <v>187564.7165300101</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>4.5985978414813361E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2">
@@ -28504,13 +28440,13 @@
         <f>variable!L10</f>
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="2">
@@ -28533,13 +28469,13 @@
         <f>variable!L11</f>
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="2">
@@ -28562,13 +28498,13 @@
         <f>variable!L12</f>
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="2">
@@ -28591,13 +28527,13 @@
         <f>variable!L13</f>
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="2">
@@ -28620,7 +28556,7 @@
         <f>variable!L14</f>
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
